--- a/temp/pages/StructureDefinition-MyPatient.xlsx
+++ b/temp/pages/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T07:53:51-04:00</t>
+    <t>2025-07-24T18:01:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-MyPatient.xlsx
+++ b/temp/pages/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T18:01:17-04:00</t>
+    <t>2025-07-25T16:07:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-MyPatient.xlsx
+++ b/temp/pages/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T16:07:06-04:00</t>
+    <t>2025-07-25T16:23:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
